--- a/Team-Data/2012-13/1-23-2012-13.xlsx
+++ b/Team-Data/2012-13/1-23-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
         <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>0.571</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K2" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M2" t="n">
         <v>22.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.382</v>
+        <v>0.38</v>
       </c>
       <c r="O2" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="P2" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.696</v>
+        <v>0.699</v>
       </c>
       <c r="R2" t="n">
         <v>9.800000000000001</v>
@@ -714,13 +781,13 @@
         <v>30.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U2" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V2" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
         <v>8.300000000000001</v>
@@ -729,22 +796,22 @@
         <v>4.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z2" t="n">
         <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -756,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI2" t="n">
         <v>15</v>
       </c>
-      <c r="AI2" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
         <v>9</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -783,7 +850,7 @@
         <v>27</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR2" t="n">
         <v>26</v>
@@ -792,22 +859,22 @@
         <v>16</v>
       </c>
       <c r="AT2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -926,22 +993,22 @@
         <v>-1.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>4</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -950,16 +1017,16 @@
         <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM3" t="n">
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -971,10 +1038,10 @@
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU3" t="n">
         <v>6</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
         <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>0.619</v>
+        <v>0.61</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,43 +1115,43 @@
         <v>35.2</v>
       </c>
       <c r="J4" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K4" t="n">
         <v>0.442</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M4" t="n">
         <v>21.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O4" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P4" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="Q4" t="n">
         <v>0.75</v>
       </c>
       <c r="R4" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S4" t="n">
         <v>29.6</v>
       </c>
       <c r="T4" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U4" t="n">
         <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W4" t="n">
         <v>7.2</v>
@@ -1099,25 +1166,25 @@
         <v>18.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF4" t="n">
         <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
@@ -1129,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>11</v>
@@ -1147,10 +1214,10 @@
         <v>7</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS4" t="n">
         <v>24</v>
@@ -1168,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY4" t="n">
         <v>6</v>
@@ -1183,7 +1250,7 @@
         <v>16</v>
       </c>
       <c r="BC4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>0.238</v>
+        <v>0.244</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J5" t="n">
-        <v>82</v>
+        <v>82.2</v>
       </c>
       <c r="K5" t="n">
         <v>0.424</v>
@@ -1242,16 +1309,16 @@
         <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P5" t="n">
         <v>26.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R5" t="n">
         <v>11.7</v>
@@ -1266,19 +1333,19 @@
         <v>19</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA5" t="n">
         <v>21.9</v>
@@ -1287,10 +1354,10 @@
         <v>95</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1344,10 +1411,10 @@
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1356,13 +1423,13 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J6" t="n">
-        <v>80.8</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.438</v>
@@ -1424,10 +1491,10 @@
         <v>13.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.356</v>
+        <v>0.359</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
         <v>23.2</v>
@@ -1445,7 +1512,7 @@
         <v>43.7</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V6" t="n">
         <v>14.9</v>
@@ -1454,7 +1521,7 @@
         <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
         <v>5.7</v>
@@ -1466,43 +1533,43 @@
         <v>20.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC6" t="n">
         <v>2.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -1514,13 +1581,13 @@
         <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS6" t="n">
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1529,7 +1596,7 @@
         <v>17</v>
       </c>
       <c r="AW6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
@@ -1538,7 +1605,7 @@
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG7" t="n">
         <v>28</v>
@@ -1684,16 +1751,16 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
@@ -1708,7 +1775,7 @@
         <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW7" t="n">
         <v>13</v>
@@ -1720,13 +1787,13 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1863,10 +1930,10 @@
         <v>14</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
         <v>10</v>
@@ -1881,7 +1948,7 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>18</v>
@@ -1890,10 +1957,10 @@
         <v>13</v>
       </c>
       <c r="AV8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.591</v>
+        <v>0.581</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1967,16 +2034,16 @@
         <v>6.2</v>
       </c>
       <c r="M9" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.332</v>
+        <v>0.331</v>
       </c>
       <c r="O9" t="n">
         <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="n">
         <v>0.681</v>
@@ -1988,7 +2055,7 @@
         <v>31.7</v>
       </c>
       <c r="T9" t="n">
-        <v>45.6</v>
+        <v>45.7</v>
       </c>
       <c r="U9" t="n">
         <v>23.5</v>
@@ -1997,31 +2064,31 @@
         <v>15.4</v>
       </c>
       <c r="W9" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y9" t="n">
         <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA9" t="n">
         <v>22</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.2</v>
+        <v>103.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AD9" t="n">
         <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -2030,10 +2097,10 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
         <v>2</v>
@@ -2045,10 +2112,10 @@
         <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2069,13 +2136,13 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV9" t="n">
         <v>26</v>
       </c>
       <c r="AW9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -2122,43 +2189,43 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="n">
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.381</v>
+        <v>0.39</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
       </c>
       <c r="I10" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J10" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K10" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L10" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M10" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O10" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P10" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q10" t="n">
         <v>0.708</v>
@@ -2167,22 +2234,22 @@
         <v>12.6</v>
       </c>
       <c r="S10" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="T10" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U10" t="n">
         <v>20.5</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W10" t="n">
         <v>6.3</v>
       </c>
       <c r="X10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y10" t="n">
         <v>5.6</v>
@@ -2194,19 +2261,19 @@
         <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG10" t="n">
         <v>22</v>
@@ -2215,7 +2282,7 @@
         <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>24</v>
@@ -2230,10 +2297,10 @@
         <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2242,13 +2309,13 @@
         <v>27</v>
       </c>
       <c r="AR10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>12</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
         <v>23</v>
@@ -2260,7 +2327,7 @@
         <v>29</v>
       </c>
       <c r="AX10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>20</v>
@@ -2269,10 +2336,10 @@
         <v>17</v>
       </c>
       <c r="BA10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BC10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
         <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.634</v>
+        <v>0.625</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
@@ -2325,37 +2392,37 @@
         <v>82.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L11" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M11" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.39</v>
+        <v>0.393</v>
       </c>
       <c r="O11" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P11" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="R11" t="n">
         <v>10.9</v>
       </c>
       <c r="S11" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U11" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V11" t="n">
         <v>15.4</v>
@@ -2364,7 +2431,7 @@
         <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y11" t="n">
         <v>5.2</v>
@@ -2376,16 +2443,16 @@
         <v>19.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AC11" t="n">
         <v>1.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2394,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
         <v>5</v>
@@ -2412,13 +2479,13 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2442,16 +2509,16 @@
         <v>26</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ11" t="n">
         <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
         <v>22</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2513,34 +2580,34 @@
         <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O12" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P12" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="Q12" t="n">
         <v>0.753</v>
       </c>
       <c r="R12" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S12" t="n">
         <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U12" t="n">
         <v>22.4</v>
       </c>
       <c r="V12" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="W12" t="n">
         <v>8.6</v>
@@ -2549,28 +2616,28 @@
         <v>4</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z12" t="n">
         <v>19.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.2</v>
+        <v>104.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD12" t="n">
         <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
@@ -2579,7 +2646,7 @@
         <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2594,28 +2661,28 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>4</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS12" t="n">
         <v>9</v>
       </c>
       <c r="AT12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2630,10 +2697,10 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>2</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -2668,67 +2735,67 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" t="n">
         <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>0.605</v>
+        <v>0.619</v>
       </c>
       <c r="H13" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="J13" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="L13" t="n">
         <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O13" t="n">
         <v>16</v>
       </c>
       <c r="P13" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
       <c r="R13" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S13" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="T13" t="n">
-        <v>45.7</v>
+        <v>46</v>
       </c>
       <c r="U13" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V13" t="n">
         <v>15</v>
       </c>
       <c r="W13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X13" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Y13" t="n">
         <v>5.5</v>
@@ -2737,34 +2804,34 @@
         <v>19.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>91</v>
+        <v>91.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AD13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE13" t="n">
         <v>4</v>
       </c>
-      <c r="AE13" t="n">
-        <v>6</v>
-      </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2776,10 +2843,10 @@
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP13" t="n">
         <v>18</v>
@@ -2800,13 +2867,13 @@
         <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
       </c>
       <c r="AX13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY13" t="n">
         <v>19</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>8.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2958,10 +3025,10 @@
         <v>11</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2970,10 +3037,10 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT14" t="n">
         <v>17</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -3032,91 +3099,91 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" t="n">
-        <v>0.405</v>
+        <v>0.415</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M15" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="N15" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O15" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P15" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.696</v>
+        <v>0.694</v>
       </c>
       <c r="R15" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T15" t="n">
-        <v>44.9</v>
+        <v>45.2</v>
       </c>
       <c r="U15" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="V15" t="n">
         <v>15.4</v>
       </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.4</v>
+        <v>102.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
         <v>20</v>
@@ -3125,10 +3192,10 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
         <v>3</v>
@@ -3149,10 +3216,10 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
         <v>4</v>
@@ -3161,28 +3228,28 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV15" t="n">
         <v>25</v>
       </c>
       <c r="AW15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB15" t="n">
         <v>5</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>6</v>
       </c>
       <c r="BC15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.659</v>
+        <v>0.65</v>
       </c>
       <c r="H16" t="n">
         <v>48.5</v>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>35.7</v>
       </c>
       <c r="J16" t="n">
-        <v>82.8</v>
+        <v>82.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
@@ -3244,55 +3311,55 @@
         <v>13.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O16" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P16" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="Q16" t="n">
         <v>0.792</v>
       </c>
       <c r="R16" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="S16" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T16" t="n">
-        <v>43</v>
+        <v>42.7</v>
       </c>
       <c r="U16" t="n">
         <v>20.4</v>
       </c>
       <c r="V16" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W16" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3304,7 +3371,7 @@
         <v>5</v>
       </c>
       <c r="AH16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
         <v>23</v>
@@ -3313,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,49 +3389,49 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -3396,64 +3463,64 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" t="n">
         <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J17" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.489</v>
+        <v>0.488</v>
       </c>
       <c r="L17" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M17" t="n">
         <v>21.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="O17" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="P17" t="n">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.757</v>
+        <v>0.763</v>
       </c>
       <c r="R17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="S17" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T17" t="n">
-        <v>39.2</v>
+        <v>38.8</v>
       </c>
       <c r="U17" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V17" t="n">
         <v>13.6</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X17" t="n">
         <v>5.1</v>
@@ -3462,19 +3529,19 @@
         <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.6</v>
+        <v>102.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3486,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
         <v>4</v>
@@ -3507,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3516,25 +3583,25 @@
         <v>14</v>
       </c>
       <c r="AR17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3546,7 +3613,7 @@
         <v>13</v>
       </c>
       <c r="BB17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>-0.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
@@ -3677,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>24</v>
@@ -3695,7 +3762,7 @@
         <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3707,7 +3774,7 @@
         <v>9</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV18" t="n">
         <v>10</v>
@@ -3722,13 +3789,13 @@
         <v>5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA18" t="n">
         <v>17</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" t="n">
-        <v>0.436</v>
+        <v>0.447</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3781,37 +3848,37 @@
         <v>81.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="L19" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.292</v>
+        <v>0.294</v>
       </c>
       <c r="O19" t="n">
-        <v>18.7</v>
+        <v>19.1</v>
       </c>
       <c r="P19" t="n">
-        <v>25.4</v>
+        <v>25.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="R19" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="S19" t="n">
         <v>31</v>
       </c>
       <c r="T19" t="n">
-        <v>44.3</v>
+        <v>44.5</v>
       </c>
       <c r="U19" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V19" t="n">
         <v>15.3</v>
@@ -3820,31 +3887,31 @@
         <v>7.7</v>
       </c>
       <c r="X19" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.40000000000001</v>
+        <v>94.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3856,13 +3923,13 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM19" t="n">
         <v>21</v>
@@ -3874,13 +3941,13 @@
         <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
         <v>13</v>
@@ -3889,7 +3956,7 @@
         <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV19" t="n">
         <v>24</v>
@@ -3898,22 +3965,22 @@
         <v>17</v>
       </c>
       <c r="AX19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>2</v>
       </c>
       <c r="BA19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB19" t="n">
         <v>24</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="n">
         <v>14</v>
       </c>
       <c r="F20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
@@ -3972,25 +4039,25 @@
         <v>18.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.376</v>
+        <v>0.371</v>
       </c>
       <c r="O20" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="P20" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.772</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U20" t="n">
         <v>21.3</v>
@@ -4005,37 +4072,37 @@
         <v>5.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z20" t="n">
         <v>20.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="AC20" t="n">
         <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4044,28 +4111,28 @@
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM20" t="n">
         <v>18</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>27</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
         <v>19</v>
@@ -4074,7 +4141,7 @@
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
@@ -4083,7 +4150,7 @@
         <v>14</v>
       </c>
       <c r="AY20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
         <v>18</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>4.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
         <v>5</v>
@@ -4214,7 +4281,7 @@
         <v>6</v>
       </c>
       <c r="AH21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI21" t="n">
         <v>14</v>
@@ -4244,7 +4311,7 @@
         <v>18</v>
       </c>
       <c r="AR21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS21" t="n">
         <v>23</v>
@@ -4262,7 +4329,7 @@
         <v>7</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" t="n">
         <v>33</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" t="n">
-        <v>0.767</v>
+        <v>0.786</v>
       </c>
       <c r="H22" t="n">
         <v>48.6</v>
@@ -4333,13 +4400,13 @@
         <v>7.7</v>
       </c>
       <c r="M22" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.391</v>
+        <v>0.393</v>
       </c>
       <c r="O22" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="P22" t="n">
         <v>27.3</v>
@@ -4348,19 +4415,19 @@
         <v>0.838</v>
       </c>
       <c r="R22" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S22" t="n">
         <v>32.4</v>
       </c>
       <c r="T22" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U22" t="n">
         <v>21.6</v>
       </c>
       <c r="V22" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
         <v>8.199999999999999</v>
@@ -4369,7 +4436,7 @@
         <v>7</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z22" t="n">
         <v>20.7</v>
@@ -4378,16 +4445,16 @@
         <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.9</v>
+        <v>106.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
@@ -4408,13 +4475,13 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4429,13 +4496,13 @@
         <v>24</v>
       </c>
       <c r="AS22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
         <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
@@ -4450,10 +4517,10 @@
         <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>-3.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
         <v>25</v>
@@ -4581,7 +4648,7 @@
         <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ23" t="n">
         <v>12</v>
@@ -4596,7 +4663,7 @@
         <v>17</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4611,16 +4678,16 @@
         <v>25</v>
       </c>
       <c r="AS23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU23" t="n">
         <v>5</v>
       </c>
       <c r="AV23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>-4.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>12</v>
@@ -4769,16 +4836,16 @@
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4808,7 +4875,7 @@
         <v>22</v>
       </c>
       <c r="AX24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY24" t="n">
         <v>9</v>
@@ -4820,10 +4887,10 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -4852,34 +4919,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
         <v>28</v>
       </c>
       <c r="G25" t="n">
-        <v>0.333</v>
+        <v>0.317</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J25" t="n">
-        <v>84.59999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L25" t="n">
         <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="N25" t="n">
         <v>0.332</v>
@@ -4891,61 +4958,61 @@
         <v>19.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.745</v>
+        <v>0.743</v>
       </c>
       <c r="R25" t="n">
         <v>11.4</v>
       </c>
       <c r="S25" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="T25" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="U25" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V25" t="n">
         <v>14.1</v>
       </c>
       <c r="W25" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X25" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z25" t="n">
         <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4</v>
+        <v>-4.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
         <v>4</v>
@@ -4960,7 +5027,7 @@
         <v>22</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO25" t="n">
         <v>26</v>
@@ -4969,7 +5036,7 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR25" t="n">
         <v>17</v>
@@ -4978,16 +5045,16 @@
         <v>28</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AU25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX25" t="n">
         <v>8</v>
@@ -4996,7 +5063,7 @@
         <v>18</v>
       </c>
       <c r="AZ25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA25" t="n">
         <v>28</v>
@@ -5005,7 +5072,7 @@
         <v>18</v>
       </c>
       <c r="BC25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" t="n">
         <v>21</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.488</v>
       </c>
       <c r="H26" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.437</v>
+        <v>0.434</v>
       </c>
       <c r="L26" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="N26" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O26" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P26" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R26" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S26" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T26" t="n">
         <v>42.2</v>
       </c>
       <c r="U26" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V26" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W26" t="n">
         <v>7.4</v>
@@ -5106,13 +5173,13 @@
         <v>19.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.7</v>
+        <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5121,10 +5188,10 @@
         <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI26" t="n">
         <v>20</v>
@@ -5148,16 +5215,16 @@
         <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR26" t="n">
         <v>13</v>
       </c>
       <c r="AS26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
         <v>16</v>
@@ -5166,28 +5233,28 @@
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA26" t="n">
         <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -5216,37 +5283,37 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" t="n">
-        <v>0.372</v>
+        <v>0.381</v>
       </c>
       <c r="H27" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M27" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O27" t="n">
         <v>17.2</v>
@@ -5255,46 +5322,46 @@
         <v>22.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.767</v>
+        <v>0.77</v>
       </c>
       <c r="R27" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T27" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="U27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V27" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="W27" t="n">
         <v>7.9</v>
       </c>
       <c r="X27" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z27" t="n">
         <v>21.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB27" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.9</v>
+        <v>-5.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5306,28 +5373,28 @@
         <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
         <v>18</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
       </c>
       <c r="AL27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM27" t="n">
         <v>19</v>
       </c>
-      <c r="AM27" t="n">
-        <v>20</v>
-      </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
@@ -5342,19 +5409,19 @@
         <v>29</v>
       </c>
       <c r="AT27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
       </c>
       <c r="AX27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
@@ -5363,13 +5430,13 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.756</v>
+        <v>0.75</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="J28" t="n">
         <v>81.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L28" t="n">
         <v>8.6</v>
@@ -5428,16 +5495,16 @@
         <v>22.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O28" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P28" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.785</v>
+        <v>0.792</v>
       </c>
       <c r="R28" t="n">
         <v>8.199999999999999</v>
@@ -5452,28 +5519,28 @@
         <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W28" t="n">
         <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="AA28" t="n">
         <v>18.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.1</v>
+        <v>104</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5491,10 +5558,10 @@
         <v>10</v>
       </c>
       <c r="AI28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5506,7 +5573,7 @@
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>
@@ -5515,10 +5582,10 @@
         <v>24</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5530,16 +5597,16 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW28" t="n">
         <v>6</v>
       </c>
       <c r="AX28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -5580,85 +5647,85 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" t="n">
         <v>15</v>
       </c>
       <c r="F29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>0.357</v>
+        <v>0.366</v>
       </c>
       <c r="H29" t="n">
-        <v>49.1</v>
+        <v>49</v>
       </c>
       <c r="I29" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>82.40000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L29" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M29" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.351</v>
+        <v>0.347</v>
       </c>
       <c r="O29" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P29" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q29" t="n">
         <v>0.771</v>
       </c>
       <c r="R29" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S29" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="T29" t="n">
-        <v>39.8</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
         <v>22.6</v>
       </c>
       <c r="V29" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W29" t="n">
         <v>7.4</v>
       </c>
       <c r="X29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
         <v>19.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5679,28 +5746,28 @@
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5715,13 +5782,13 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
         <v>24</v>
       </c>
       <c r="AY29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5733,7 +5800,7 @@
         <v>12</v>
       </c>
       <c r="BC29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" t="n">
         <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.548</v>
+        <v>0.537</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
@@ -5780,37 +5847,37 @@
         <v>36.7</v>
       </c>
       <c r="J30" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.448</v>
       </c>
       <c r="L30" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M30" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O30" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P30" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R30" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S30" t="n">
-        <v>30.1</v>
+        <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U30" t="n">
         <v>23</v>
@@ -5828,19 +5895,19 @@
         <v>6.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5852,7 +5919,7 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
         <v>16</v>
@@ -5864,13 +5931,13 @@
         <v>14</v>
       </c>
       <c r="AL30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM30" t="n">
         <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5882,13 +5949,13 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>7</v>
@@ -5903,10 +5970,10 @@
         <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
@@ -5944,55 +6011,55 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="n">
-        <v>0.225</v>
+        <v>0.231</v>
       </c>
       <c r="H31" t="n">
         <v>48.9</v>
       </c>
       <c r="I31" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J31" t="n">
-        <v>83.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.417</v>
+        <v>0.418</v>
       </c>
       <c r="L31" t="n">
         <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O31" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="P31" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q31" t="n">
         <v>0.736</v>
       </c>
       <c r="R31" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S31" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T31" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U31" t="n">
         <v>21.4</v>
@@ -6004,10 +6071,10 @@
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y31" t="n">
         <v>4.9</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>5</v>
       </c>
       <c r="Z31" t="n">
         <v>20.8</v>
@@ -6016,13 +6083,13 @@
         <v>19.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>90.90000000000001</v>
+        <v>91</v>
       </c>
       <c r="AC31" t="n">
         <v>-5.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6040,7 +6107,7 @@
         <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6052,7 +6119,7 @@
         <v>15</v>
       </c>
       <c r="AN31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6067,10 +6134,10 @@
         <v>18</v>
       </c>
       <c r="AS31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU31" t="n">
         <v>20</v>
@@ -6082,7 +6149,7 @@
         <v>18</v>
       </c>
       <c r="AX31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY31" t="n">
         <v>14</v>
@@ -6091,13 +6158,13 @@
         <v>23</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
       </c>
       <c r="BC31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-23-2012-13</t>
+          <t>2013-01-23</t>
         </is>
       </c>
     </row>
